--- a/bases/relevé-bnf_valéry.xlsx
+++ b/bases/relevé-bnf_valéry.xlsx
@@ -4135,11 +4135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="G264" sqref="G264"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="C233" sqref="C233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4168,7 +4167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -4188,7 +4187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>212</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -4228,7 +4227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -4248,7 +4247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>215</v>
       </c>
@@ -4268,7 +4267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -4285,7 +4284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>217</v>
       </c>
@@ -4305,7 +4304,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>218</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>219</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -4385,7 +4384,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -4405,7 +4404,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -4425,7 +4424,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -4445,7 +4444,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>239</v>
       </c>
@@ -4502,7 +4501,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>240</v>
       </c>
@@ -4519,7 +4518,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>243</v>
       </c>
@@ -4536,7 +4535,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -4553,7 +4552,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -4573,7 +4572,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -4593,7 +4592,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -4650,7 +4649,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -4687,7 +4686,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -4707,7 +4706,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -4727,7 +4726,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -4747,7 +4746,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -4767,7 +4766,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -4807,7 +4806,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -4827,7 +4826,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -4847,7 +4846,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -4887,7 +4886,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -4907,7 +4906,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>148</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -4947,7 +4946,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -4967,7 +4966,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -4987,7 +4986,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>153</v>
       </c>
@@ -5007,7 +5006,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>154</v>
       </c>
@@ -5027,7 +5026,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -5047,7 +5046,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -5067,7 +5066,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>159</v>
       </c>
@@ -5127,7 +5126,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -5147,7 +5146,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>161</v>
       </c>
@@ -5164,7 +5163,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>162</v>
       </c>
@@ -5184,7 +5183,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>164</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>165</v>
       </c>
@@ -5245,7 +5244,7 @@
       </c>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>166</v>
       </c>
@@ -5265,7 +5264,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>167</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>168</v>
       </c>
@@ -5305,7 +5304,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -5325,7 +5324,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>170</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -5365,7 +5364,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>172</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>173</v>
       </c>
@@ -5405,7 +5404,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>174</v>
       </c>
@@ -5425,7 +5424,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>175</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>176</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>177</v>
       </c>
@@ -5485,7 +5484,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>178</v>
       </c>
@@ -5505,7 +5504,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>179</v>
       </c>
@@ -5525,7 +5524,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>180</v>
       </c>
@@ -5545,7 +5544,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>181</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>182</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>183</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>183</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>184</v>
       </c>
@@ -5645,7 +5644,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>185</v>
       </c>
@@ -5665,7 +5664,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>186</v>
       </c>
@@ -5685,7 +5684,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>187</v>
       </c>
@@ -5705,7 +5704,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>188</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>189</v>
       </c>
@@ -5745,7 +5744,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>190</v>
       </c>
@@ -5765,7 +5764,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>191</v>
       </c>
@@ -5785,7 +5784,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>192</v>
       </c>
@@ -5805,7 +5804,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>193</v>
       </c>
@@ -5825,7 +5824,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>194</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>195</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>196</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>197</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>198</v>
       </c>
@@ -5925,7 +5924,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>199</v>
       </c>
@@ -5945,7 +5944,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>200</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>201</v>
       </c>
@@ -5985,7 +5984,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>202</v>
       </c>
@@ -6005,7 +6004,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>203</v>
       </c>
@@ -6025,7 +6024,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>204</v>
       </c>
@@ -6045,7 +6044,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>205</v>
       </c>
@@ -6065,7 +6064,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>206</v>
       </c>
@@ -6085,7 +6084,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>207</v>
       </c>
@@ -6105,7 +6104,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>208</v>
       </c>
@@ -6125,7 +6124,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>209</v>
       </c>
@@ -6145,7 +6144,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>210</v>
       </c>
@@ -6166,7 +6165,7 @@
       </c>
       <c r="G102" s="5"/>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>211</v>
       </c>
@@ -6186,7 +6185,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -6206,7 +6205,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>22</v>
       </c>
@@ -6226,7 +6225,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -6246,7 +6245,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>24</v>
       </c>
@@ -6266,7 +6265,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -6286,7 +6285,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -6306,7 +6305,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -6326,7 +6325,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>28</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>29</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>30</v>
       </c>
@@ -6386,7 +6385,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>61</v>
       </c>
@@ -6406,7 +6405,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>62</v>
       </c>
@@ -6426,7 +6425,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>63</v>
       </c>
@@ -6446,7 +6445,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>64</v>
       </c>
@@ -6466,7 +6465,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>65</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>66</v>
       </c>
@@ -6506,7 +6505,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>67</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -6546,7 +6545,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>69</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>70</v>
       </c>
@@ -6586,7 +6585,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>31</v>
       </c>
@@ -6606,7 +6605,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>32</v>
       </c>
@@ -6626,7 +6625,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>33</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>34</v>
       </c>
@@ -6666,7 +6665,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>35</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>37</v>
       </c>
@@ -6726,7 +6725,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>38</v>
       </c>
@@ -6746,7 +6745,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>39</v>
       </c>
@@ -6766,7 +6765,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>40</v>
       </c>
@@ -6786,7 +6785,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>41</v>
       </c>
@@ -6806,7 +6805,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>42</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>43</v>
       </c>
@@ -6846,7 +6845,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>44</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>45</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>46</v>
       </c>
@@ -6906,7 +6905,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>47</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>48</v>
       </c>
@@ -6946,7 +6945,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>49</v>
       </c>
@@ -6966,7 +6965,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>50</v>
       </c>
@@ -6986,7 +6985,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>51</v>
       </c>
@@ -7006,7 +7005,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>52</v>
       </c>
@@ -7026,7 +7025,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>53</v>
       </c>
@@ -7046,7 +7045,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>54</v>
       </c>
@@ -7066,7 +7065,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>55</v>
       </c>
@@ -7086,7 +7085,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>56</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>57</v>
       </c>
@@ -7126,7 +7125,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>58</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -7166,7 +7165,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>60</v>
       </c>
@@ -7186,7 +7185,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>71</v>
       </c>
@@ -7206,7 +7205,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>72</v>
       </c>
@@ -7226,7 +7225,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>73</v>
       </c>
@@ -7246,7 +7245,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>74</v>
       </c>
@@ -7266,7 +7265,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>75</v>
       </c>
@@ -7286,7 +7285,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>76</v>
       </c>
@@ -7306,7 +7305,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>77</v>
       </c>
@@ -7326,7 +7325,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>78</v>
       </c>
@@ -7346,7 +7345,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>306</v>
       </c>
@@ -7366,7 +7365,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>79</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>80</v>
       </c>
@@ -7406,7 +7405,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>81</v>
       </c>
@@ -7426,7 +7425,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>82</v>
       </c>
@@ -7446,7 +7445,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>83</v>
       </c>
@@ -7466,7 +7465,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>84</v>
       </c>
@@ -7486,7 +7485,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>85</v>
       </c>
@@ -7506,7 +7505,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>86</v>
       </c>
@@ -7526,7 +7525,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>87</v>
       </c>
@@ -7546,7 +7545,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>88</v>
       </c>
@@ -7566,7 +7565,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>517</v>
       </c>
@@ -7586,7 +7585,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="174" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>518</v>
       </c>
@@ -7606,7 +7605,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -7626,7 +7625,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>90</v>
       </c>
@@ -7646,7 +7645,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>91</v>
       </c>
@@ -7666,7 +7665,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>92</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>93</v>
       </c>
@@ -7706,7 +7705,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>519</v>
       </c>
@@ -7726,7 +7725,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>94</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>95</v>
       </c>
@@ -7766,7 +7765,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>96</v>
       </c>
@@ -7786,7 +7785,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>309</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>97</v>
       </c>
@@ -7826,7 +7825,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>98</v>
       </c>
@@ -7846,7 +7845,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>99</v>
       </c>
@@ -7866,7 +7865,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>100</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>101</v>
       </c>
@@ -7906,7 +7905,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>102</v>
       </c>
@@ -7926,7 +7925,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>103</v>
       </c>
@@ -7946,7 +7945,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>104</v>
       </c>
@@ -8009,7 +8008,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>105</v>
       </c>
@@ -8029,7 +8028,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>106</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>107</v>
       </c>
@@ -8089,7 +8088,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>108</v>
       </c>
@@ -8109,7 +8108,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>109</v>
       </c>
@@ -8129,7 +8128,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>110</v>
       </c>
@@ -8169,7 +8168,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>111</v>
       </c>
@@ -8189,7 +8188,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>112</v>
       </c>
@@ -8209,7 +8208,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>113</v>
       </c>
@@ -8229,7 +8228,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>114</v>
       </c>
@@ -8249,7 +8248,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>115</v>
       </c>
@@ -8269,7 +8268,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>116</v>
       </c>
@@ -8307,7 +8306,7 @@
       </c>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>117</v>
       </c>
@@ -8347,23 +8346,23 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="2" t="s">
+    <row r="212" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="B212" s="11">
+      <c r="B212" s="12">
         <v>19414</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E212" s="6" t="s">
         <v>1043</v>
       </c>
-      <c r="F212" s="8" t="s">
+      <c r="F212" s="7" t="s">
         <v>1041</v>
       </c>
     </row>
@@ -8407,7 +8406,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>118</v>
       </c>
@@ -8420,14 +8419,14 @@
       <c r="D215" t="s">
         <v>1049</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E215" s="6" t="s">
         <v>1050</v>
       </c>
-      <c r="F215" s="9" t="s">
+      <c r="F215" s="7" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>119</v>
       </c>
@@ -8440,10 +8439,10 @@
       <c r="D216" t="s">
         <v>1051</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E216" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="F216" s="9" t="s">
+      <c r="F216" s="7" t="s">
         <v>581</v>
       </c>
     </row>
@@ -8487,7 +8486,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>120</v>
       </c>
@@ -8500,10 +8499,10 @@
       <c r="D219" t="s">
         <v>1058</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="E219" s="6" t="s">
         <v>1059</v>
       </c>
-      <c r="F219" s="9" t="s">
+      <c r="F219" s="7" t="s">
         <v>583</v>
       </c>
     </row>
@@ -8527,7 +8526,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>121</v>
       </c>
@@ -8540,14 +8539,14 @@
       <c r="D221" t="s">
         <v>1063</v>
       </c>
-      <c r="E221" s="2" t="s">
+      <c r="E221" s="6" t="s">
         <v>1064</v>
       </c>
-      <c r="F221" s="9" t="s">
+      <c r="F221" s="7" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>122</v>
       </c>
@@ -8560,10 +8559,10 @@
       <c r="D222" t="s">
         <v>1065</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E222" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="F222" s="9" t="s">
+      <c r="F222" s="7" t="s">
         <v>586</v>
       </c>
     </row>
@@ -9364,7 +9363,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>588</v>
       </c>
@@ -9408,13 +9407,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F264">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="non numérisé"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F264"/>
   <sortState ref="A2:F264">
     <sortCondition ref="A2:A264"/>
   </sortState>
